--- a/bug_reports for the chatbot.xlsx
+++ b/bug_reports for the chatbot.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
-  <si>
-    <t>ID 001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Название</t>
   </si>
@@ -48,40 +45,7 @@
     <t xml:space="preserve">Шаги </t>
   </si>
   <si>
-    <t>Открывается панель управления смс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Нажать правой кнопкой мыши на любое смс от чат-бота </t>
-  </si>
-  <si>
-    <t>2. Нажать кнопку "переслать"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается меню с выбором чата </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Переслать смс в тестовый чат </t>
-  </si>
-  <si>
-    <t>смс от чат-бота ушло в сторонний чат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные которые предоставляет чат-бот не должны уходитть в сторонние источники, смотри спецификацию 1.4 </t>
-  </si>
-  <si>
-    <t>Telegram Desktop Версия 4.14.13 x64</t>
-  </si>
-  <si>
     <t>Предусловие</t>
-  </si>
-  <si>
-    <t>Телеграмм бот открыт на десктоп версии "телеграмм" и активирована команда /start.</t>
-  </si>
-  <si>
-    <t>низкий\низкая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сообщение от чат бота можно переслать в сторонние чаты. </t>
   </si>
 </sst>
 </file>
@@ -104,7 +68,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,18 +81,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -252,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,12 +218,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -292,21 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,101 +530,83 @@
     <col min="1" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -703,100 +616,29 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
